--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H2">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>63.09322196128573</v>
+        <v>80.994743542956</v>
       </c>
       <c r="R2">
-        <v>63.09322196128573</v>
+        <v>728.952691886604</v>
       </c>
       <c r="S2">
-        <v>0.0001693911470799275</v>
+        <v>0.000202814095477151</v>
       </c>
       <c r="T2">
-        <v>0.0001693911470799275</v>
+        <v>0.000202814095477151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H3">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>5598.594355217751</v>
+        <v>6623.665038788542</v>
       </c>
       <c r="R3">
-        <v>5598.594355217751</v>
+        <v>59612.98534909688</v>
       </c>
       <c r="S3">
-        <v>0.01503096989479242</v>
+        <v>0.01658592366396051</v>
       </c>
       <c r="T3">
-        <v>0.01503096989479242</v>
+        <v>0.01658592366396051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H4">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>4780.203536706927</v>
+        <v>6149.901683376004</v>
       </c>
       <c r="R4">
-        <v>4780.203536706927</v>
+        <v>55349.11515038404</v>
       </c>
       <c r="S4">
-        <v>0.01283377413908522</v>
+        <v>0.01539960116702891</v>
       </c>
       <c r="T4">
-        <v>0.01283377413908522</v>
+        <v>0.01539960116702891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H5">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>4909.894785860472</v>
+        <v>5821.225984598036</v>
       </c>
       <c r="R5">
-        <v>4909.894785860472</v>
+        <v>52391.03386138233</v>
       </c>
       <c r="S5">
-        <v>0.01318196604904708</v>
+        <v>0.01457658399780211</v>
       </c>
       <c r="T5">
-        <v>0.01318196604904708</v>
+        <v>0.01457658399780211</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H6">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I6">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J6">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>2070.141830723564</v>
+        <v>2481.473290350584</v>
       </c>
       <c r="R6">
-        <v>2070.141830723564</v>
+        <v>22333.25961315526</v>
       </c>
       <c r="S6">
-        <v>0.005557866414550429</v>
+        <v>0.006213708925027305</v>
       </c>
       <c r="T6">
-        <v>0.005557866414550429</v>
+        <v>0.006213708925027306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H7">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I7">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J7">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>852.3409676147942</v>
+        <v>1065.205631635932</v>
       </c>
       <c r="R7">
-        <v>852.3409676147942</v>
+        <v>9586.850684723391</v>
       </c>
       <c r="S7">
-        <v>0.002288344289915593</v>
+        <v>0.002667317744673536</v>
       </c>
       <c r="T7">
-        <v>0.002288344289915593</v>
+        <v>0.002667317744673537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H8">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>537.6064833403119</v>
+        <v>587.3593455970201</v>
       </c>
       <c r="R8">
-        <v>537.6064833403119</v>
+        <v>5286.234110373181</v>
       </c>
       <c r="S8">
-        <v>0.001443352804941547</v>
+        <v>0.001470771425236164</v>
       </c>
       <c r="T8">
-        <v>0.001443352804941547</v>
+        <v>0.001470771425236164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H9">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>47704.65874772392</v>
+        <v>48033.63023889775</v>
       </c>
       <c r="R9">
-        <v>47704.65874772392</v>
+        <v>432302.6721500797</v>
       </c>
       <c r="S9">
-        <v>0.1280763070126904</v>
+        <v>0.1202781420527532</v>
       </c>
       <c r="T9">
-        <v>0.1280763070126904</v>
+        <v>0.1202781420527532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H10">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J10">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>40731.29146260456</v>
+        <v>44597.98340268825</v>
       </c>
       <c r="R10">
-        <v>40731.29146260456</v>
+        <v>401381.8506241942</v>
       </c>
       <c r="S10">
-        <v>0.109354380207925</v>
+        <v>0.1116751441915992</v>
       </c>
       <c r="T10">
-        <v>0.109354380207925</v>
+        <v>0.1116751441915992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H11">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J11">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>41836.36827133423</v>
+        <v>42214.48621628768</v>
       </c>
       <c r="R11">
-        <v>41836.36827133423</v>
+        <v>379930.3759465892</v>
       </c>
       <c r="S11">
-        <v>0.1123212635342672</v>
+        <v>0.1057067713715064</v>
       </c>
       <c r="T11">
-        <v>0.1123212635342672</v>
+        <v>0.1057067713715064</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H12">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J12">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>17639.32218129332</v>
+        <v>17995.19899910297</v>
       </c>
       <c r="R12">
-        <v>17639.32218129332</v>
+        <v>161956.7909919267</v>
       </c>
       <c r="S12">
-        <v>0.04735762297628578</v>
+        <v>0.04506070206887899</v>
       </c>
       <c r="T12">
-        <v>0.04735762297628578</v>
+        <v>0.045060702068879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H13">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J13">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>7262.650661388578</v>
+        <v>7724.680088555628</v>
       </c>
       <c r="R13">
-        <v>7262.650661388578</v>
+        <v>69522.12079700065</v>
       </c>
       <c r="S13">
-        <v>0.01949858777426644</v>
+        <v>0.01934290963190561</v>
       </c>
       <c r="T13">
-        <v>0.01949858777426644</v>
+        <v>0.01934290963190561</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H14">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I14">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J14">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>210.3117881892574</v>
+        <v>261.3695073130741</v>
       </c>
       <c r="R14">
-        <v>210.3117881892574</v>
+        <v>2352.325565817666</v>
       </c>
       <c r="S14">
-        <v>0.0005646399714325682</v>
+        <v>0.0006544797587129327</v>
       </c>
       <c r="T14">
-        <v>0.0005646399714325682</v>
+        <v>0.0006544797587129328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H15">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I15">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J15">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>18662.07420687149</v>
+        <v>21374.52372914584</v>
       </c>
       <c r="R15">
-        <v>18662.07420687149</v>
+        <v>192370.7135623125</v>
       </c>
       <c r="S15">
-        <v>0.05010348272802439</v>
+        <v>0.05352266711089088</v>
       </c>
       <c r="T15">
-        <v>0.05010348272802439</v>
+        <v>0.05352266711089089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H16">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I16">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J16">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>15934.09121395517</v>
+        <v>19845.69248194902</v>
       </c>
       <c r="R16">
-        <v>15934.09121395517</v>
+        <v>178611.2323375412</v>
       </c>
       <c r="S16">
-        <v>0.04277946036840908</v>
+        <v>0.04969441217761882</v>
       </c>
       <c r="T16">
-        <v>0.04277946036840908</v>
+        <v>0.04969441217761883</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H17">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I17">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J17">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>16366.39753267063</v>
+        <v>18785.05815313215</v>
       </c>
       <c r="R17">
-        <v>16366.39753267063</v>
+        <v>169065.5233781893</v>
       </c>
       <c r="S17">
-        <v>0.04394010585362532</v>
+        <v>0.0470385411590641</v>
       </c>
       <c r="T17">
-        <v>0.04394010585362532</v>
+        <v>0.04703854115906411</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H18">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I18">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J18">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>6900.507165286373</v>
+        <v>8007.69806704192</v>
       </c>
       <c r="R18">
-        <v>6900.507165286373</v>
+        <v>72069.28260337729</v>
       </c>
       <c r="S18">
-        <v>0.01852631372793657</v>
+        <v>0.02005159803314768</v>
       </c>
       <c r="T18">
-        <v>0.01852631372793657</v>
+        <v>0.02005159803314769</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H19">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I19">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J19">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>2841.150720691081</v>
+        <v>3437.411601657063</v>
       </c>
       <c r="R19">
-        <v>2841.150720691081</v>
+        <v>30936.70441491357</v>
       </c>
       <c r="S19">
-        <v>0.007627852321444792</v>
+        <v>0.008607416904814345</v>
       </c>
       <c r="T19">
-        <v>0.007627852321444792</v>
+        <v>0.008607416904814348</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H20">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I20">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J20">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>211.086522080726</v>
+        <v>231.8278546047871</v>
       </c>
       <c r="R20">
-        <v>211.086522080726</v>
+        <v>2086.450691443084</v>
       </c>
       <c r="S20">
-        <v>0.0005667199581328525</v>
+        <v>0.0005805062721526135</v>
       </c>
       <c r="T20">
-        <v>0.0005667199581328525</v>
+        <v>0.0005805062721526137</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H21">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I21">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J21">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>18730.82043121605</v>
+        <v>18958.63840532681</v>
       </c>
       <c r="R21">
-        <v>18730.82043121605</v>
+        <v>170627.7456479413</v>
       </c>
       <c r="S21">
-        <v>0.05028805091834895</v>
+        <v>0.04747319309203658</v>
       </c>
       <c r="T21">
-        <v>0.05028805091834895</v>
+        <v>0.04747319309203658</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H22">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I22">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J22">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>15992.78825894484</v>
+        <v>17602.60543983684</v>
       </c>
       <c r="R22">
-        <v>15992.78825894484</v>
+        <v>158423.4489585316</v>
       </c>
       <c r="S22">
-        <v>0.0429370487665274</v>
+        <v>0.0440776320061843</v>
       </c>
       <c r="T22">
-        <v>0.0429370487665274</v>
+        <v>0.04407763200618432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H23">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I23">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J23">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>16426.68708162543</v>
+        <v>16661.85078372741</v>
       </c>
       <c r="R23">
-        <v>16426.68708162543</v>
+        <v>149956.6570535467</v>
       </c>
       <c r="S23">
-        <v>0.04410196976763896</v>
+        <v>0.04172194450970421</v>
       </c>
       <c r="T23">
-        <v>0.04410196976763896</v>
+        <v>0.04172194450970421</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H24">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I24">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J24">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>6925.926837741719</v>
+        <v>7102.616836559988</v>
       </c>
       <c r="R24">
-        <v>6925.926837741719</v>
+        <v>63923.5515290399</v>
       </c>
       <c r="S24">
-        <v>0.01859455984601007</v>
+        <v>0.01778523822924033</v>
       </c>
       <c r="T24">
-        <v>0.01859455984601007</v>
+        <v>0.01778523822924033</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H25">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I25">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J25">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>2851.616780501809</v>
+        <v>3048.893366322309</v>
       </c>
       <c r="R25">
-        <v>2851.616780501809</v>
+        <v>27440.04029690078</v>
       </c>
       <c r="S25">
-        <v>0.007655951344154935</v>
+        <v>0.007634551617155196</v>
       </c>
       <c r="T25">
-        <v>0.007655951344154935</v>
+        <v>0.007634551617155198</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H26">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I26">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J26">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>171.2272485094697</v>
+        <v>189.507386925258</v>
       </c>
       <c r="R26">
-        <v>171.2272485094697</v>
+        <v>1705.566482327322</v>
       </c>
       <c r="S26">
-        <v>0.0004597067503408857</v>
+        <v>0.0004745341189345279</v>
       </c>
       <c r="T26">
-        <v>0.0004597067503408857</v>
+        <v>0.000474534118934528</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H27">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I27">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J27">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>15193.89685872762</v>
+        <v>15497.71501780587</v>
       </c>
       <c r="R27">
-        <v>15193.89685872762</v>
+        <v>139479.4351602528</v>
       </c>
       <c r="S27">
-        <v>0.04079220457457727</v>
+        <v>0.03880690172976432</v>
       </c>
       <c r="T27">
-        <v>0.04079220457457727</v>
+        <v>0.03880690172976432</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H28">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I28">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J28">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>12972.88478004497</v>
+        <v>14389.22758296936</v>
       </c>
       <c r="R28">
-        <v>12972.88478004497</v>
+        <v>129503.0482467243</v>
       </c>
       <c r="S28">
-        <v>0.03482928538941853</v>
+        <v>0.03603120460906263</v>
       </c>
       <c r="T28">
-        <v>0.03482928538941853</v>
+        <v>0.03603120460906264</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H29">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I29">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J29">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>13324.85088762375</v>
+        <v>13620.20887759854</v>
       </c>
       <c r="R29">
-        <v>13324.85088762375</v>
+        <v>122581.8798983868</v>
       </c>
       <c r="S29">
-        <v>0.0357742354306862</v>
+        <v>0.03410555084053042</v>
       </c>
       <c r="T29">
-        <v>0.0357742354306862</v>
+        <v>0.03410555084053042</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H30">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I30">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J30">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>5618.110451177356</v>
+        <v>5806.025161740991</v>
       </c>
       <c r="R30">
-        <v>5618.110451177356</v>
+        <v>52254.22645566893</v>
       </c>
       <c r="S30">
-        <v>0.01508336623434135</v>
+        <v>0.01453852052598403</v>
       </c>
       <c r="T30">
-        <v>0.01508336623434135</v>
+        <v>0.01453852052598403</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H31">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I31">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J31">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>2313.14860994311</v>
+        <v>2492.314031247406</v>
       </c>
       <c r="R31">
-        <v>2313.14860994311</v>
+        <v>22430.82628122665</v>
       </c>
       <c r="S31">
-        <v>0.006210285102336821</v>
+        <v>0.006240854576252498</v>
       </c>
       <c r="T31">
-        <v>0.006210285102336821</v>
+        <v>0.006240854576252499</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H32">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I32">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J32">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>92.65616389476942</v>
+        <v>104.478252028818</v>
       </c>
       <c r="R32">
-        <v>92.65616389476942</v>
+        <v>940.3042682593622</v>
       </c>
       <c r="S32">
-        <v>0.0002487610142305199</v>
+        <v>0.0002616177452431896</v>
       </c>
       <c r="T32">
-        <v>0.0002487610142305199</v>
+        <v>0.0002616177452431896</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H33">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I33">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J33">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>8221.870115869033</v>
+        <v>8544.12169241574</v>
       </c>
       <c r="R33">
-        <v>8221.870115869033</v>
+        <v>76897.09523174165</v>
       </c>
       <c r="S33">
-        <v>0.02207387682505429</v>
+        <v>0.02139482436628701</v>
       </c>
       <c r="T33">
-        <v>0.02207387682505429</v>
+        <v>0.02139482436628701</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H34">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I34">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J34">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>7020.014330845999</v>
+        <v>7932.996018284082</v>
       </c>
       <c r="R34">
-        <v>7020.014330845999</v>
+        <v>71396.96416455675</v>
       </c>
       <c r="S34">
-        <v>0.01884716365807388</v>
+        <v>0.01986454109850752</v>
       </c>
       <c r="T34">
-        <v>0.01884716365807388</v>
+        <v>0.01986454109850753</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H35">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I35">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J35">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>7210.473674397385</v>
+        <v>7509.024523461579</v>
       </c>
       <c r="R35">
-        <v>7210.473674397385</v>
+        <v>67581.22071115421</v>
       </c>
       <c r="S35">
-        <v>0.01935850426921045</v>
+        <v>0.01880289942314475</v>
       </c>
       <c r="T35">
-        <v>0.01935850426921045</v>
+        <v>0.01880289942314475</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H36">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I36">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J36">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>3040.126891453361</v>
+        <v>3200.948363945725</v>
       </c>
       <c r="R36">
-        <v>3040.126891453361</v>
+        <v>28808.53527551153</v>
       </c>
       <c r="S36">
-        <v>0.008162058703037977</v>
+        <v>0.008015303446925703</v>
       </c>
       <c r="T36">
-        <v>0.008162058703037977</v>
+        <v>0.008015303446925704</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H37">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I37">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J37">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>1251.713606225434</v>
+        <v>1374.049939247619</v>
       </c>
       <c r="R37">
-        <v>1251.713606225434</v>
+        <v>12366.44945322858</v>
       </c>
       <c r="S37">
-        <v>0.003360570232158709</v>
+        <v>0.003440676312792354</v>
       </c>
       <c r="T37">
-        <v>0.003360570232158709</v>
+        <v>0.003440676312792355</v>
       </c>
     </row>
   </sheetData>
